--- a/src/main/resources/Datasheet.xlsx
+++ b/src/main/resources/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JayalakshmiKudumula\eclipse-workspace\TestNGProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473C2E9-C281-4F4C-A719-27CF189CF5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D1585-0703-404E-A04C-89F29C70472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F03E4854-2C65-45B3-BF59-90F8CF38490E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>testing2</t>
-  </si>
-  <si>
-    <t>demo3</t>
-  </si>
-  <si>
-    <t>demo3@in.co</t>
   </si>
 </sst>
 </file>
@@ -479,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07734369-0E7A-42C2-9E7F-A4213E39DE42}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,31 +544,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9A08148C-2A6A-49C2-ABFC-AE2A7C2B11BD}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{AF4CC52C-9DCA-4C91-BD76-04CEB0023124}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{334CAF88-DB4F-48D2-90C6-48570BC2C33C}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{DC2DA2AD-AADD-4749-866E-C6CF58E7DFA2}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{F947AD59-7575-4088-9E47-2CA9A13B5C75}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{FC1AA652-32D3-4076-85AC-28365B23FD22}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{5FD2E748-DF4B-4633-A0F4-2B9F41F0EEFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
